--- a/biology/Médecine/Henry_Gauvain/Henry_Gauvain.xlsx
+++ b/biology/Médecine/Henry_Gauvain/Henry_Gauvain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry John Gauvain, né le 28 novembre 1878 à Aurigny (île Anglo-Normande) et mort le 19 janvier 1945 dans le comté d'Hampshire, est un médecin, chirurgien orthopédiste et spécialiste de la tuberculose.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Gauvain naquit à Sainte-Anne le 28 novembre 1878. Il était le deuxième fils de Guillaume Gauvain, receveur général pour l'île d'Aurigny et de Catherine Margaret Le Ber, fille de Pierre Le Ber qui était juré-justicier d'Aurigny. 
 Le 16 octobre 1899, il est admis au St John's College, un des collèges de l'université de Cambridge en Angleterre. Il poursuivit des études supérieures en médecine au St Bartholomew's Hospital situé dans le Grand Londres.
